--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\PalutenaGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\PalutenaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137B193-A186-41E5-89EC-226219C0B32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349E4F3-51A6-4D2F-8B2F-D4BB77FCF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1035" windowWidth="14685" windowHeight="12300" xr2:uid="{8BFA9828-699D-48CD-9D82-B315F6ADB832}"/>
+    <workbookView xWindow="5172" yWindow="396" windowWidth="16824" windowHeight="11952" xr2:uid="{8BFA9828-699D-48CD-9D82-B315F6ADB832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>作品展示会用作品</t>
     <rPh sb="0" eb="8">
@@ -320,19 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>βで敵の体力調整等</t>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>タイリョクチョウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇α</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,6 +377,165 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カリテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力調整</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拾った時の効果</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面推移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡画面</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル等演出</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP管理</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減少・回復</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +592,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -470,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +627,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,26 +946,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910690CC-70DC-4593-AD54-655055A4663A}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -833,22 +979,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -856,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -864,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -872,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -880,7 +1028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -888,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -896,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -904,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -912,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -920,9 +1068,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -930,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -938,7 +1086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -946,7 +1094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
@@ -956,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -964,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -972,7 +1120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -980,15 +1128,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
@@ -998,168 +1146,309 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
-        <v>42</v>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1466,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\PalutenaGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\PalutenaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349E4F3-51A6-4D2F-8B2F-D4BB77FCF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A384606-5253-4FE5-B0A8-3D63CA26ED47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="396" windowWidth="16824" windowHeight="11952" xr2:uid="{8BFA9828-699D-48CD-9D82-B315F6ADB832}"/>
+    <workbookView xWindow="8865" yWindow="1125" windowWidth="14685" windowHeight="12300" xr2:uid="{8BFA9828-699D-48CD-9D82-B315F6ADB832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>作品展示会用作品</t>
     <rPh sb="0" eb="8">
@@ -537,6 +537,17 @@
     <rPh sb="3" eb="5">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラージュ・ビット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -948,24 +959,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910690CC-70DC-4593-AD54-655055A4663A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -979,12 +995,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1004,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1012,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1020,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1028,7 +1044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1036,15 +1052,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1052,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1060,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1068,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1078,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1086,7 +1102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1094,7 +1110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1104,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1112,7 +1128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1120,7 +1136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1128,7 +1144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1136,7 +1152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1146,30 +1162,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
@@ -1182,14 +1198,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1211,7 +1227,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1220,212 +1236,214 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="4" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="5" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1438,18 +1456,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E52" t="s">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="F52" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1466,13 +1491,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
